--- a/full_anno/all_anno/DATETIMEEVENTS_anno.xlsx
+++ b/full_anno/all_anno/DATETIMEEVENTS_anno.xlsx
@@ -4,19 +4,21 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="CPA-Short" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="CPA-Long" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="tDwAGbN6dXJ3I8I2ja2U720U2AIk75fwyBfDoScYkto="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="HYl45r7SIoxrcPbHout1fmMPt3+QwDs/3Aax3pjavAQ="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="85">
   <si>
     <t>column</t>
   </si>
@@ -126,9 +128,6 @@
     <t>https://biomedit.ch/rdf/sphn-schema/sphn#Quantity</t>
   </si>
   <si>
-    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasCategory</t>
-  </si>
-  <si>
     <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasDescriptio</t>
   </si>
   <si>
@@ -150,10 +149,16 @@
     <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasUnit</t>
   </si>
   <si>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasTypeCode</t>
+  </si>
+  <si>
     <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasName</t>
   </si>
   <si>
     <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasSourceSystem</t>
+  </si>
+  <si>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasCategory</t>
   </si>
   <si>
     <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasEncoding</t>
@@ -162,19 +167,19 @@
     <t>CEA</t>
   </si>
   <si>
-    <t>https://www.w3.org/2001/XMLSchema#string</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/2001/XMLSchema#dateTime</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
     <t>IMD</t>
   </si>
   <si>
+    <t>https://www.w3.org/2001/XMLSchema#string</t>
+  </si>
+  <si>
     <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>https://browser.ihtsdotools.org/?perspective=full&amp;conceptId1=184099003&amp;edition=MAIN&amp;release=&amp;languages=en</t>
   </si>
   <si>
     <t>DOB</t>
@@ -186,22 +191,22 @@
     <t>datetimeevents</t>
   </si>
   <si>
-    <t>https://biomedit.ch/rdf/sphn-schema/sphn#SourceSyste</t>
-  </si>
-  <si>
     <t>ADT</t>
   </si>
   <si>
     <t>Date time</t>
   </si>
   <si>
-    <t>https://biomedit.ch/rdf/sphn-schema/sphn#DataFile_encodin</t>
-  </si>
-  <si>
     <t>Hospital Admit Date</t>
   </si>
   <si>
+    <t>https://browser.ihtsdotools.org/?perspective=full&amp;conceptId1=399423000&amp;edition=MAIN&amp;release=&amp;languages=en</t>
+  </si>
+  <si>
     <t>RN</t>
+  </si>
+  <si>
+    <t>https://browser.ihtsdotools.org/?perspective=full&amp;conceptId1=224535009&amp;edition=MAIN&amp;release=&amp;languages=en</t>
   </si>
   <si>
     <t>18 Gauge Insertion Date</t>
@@ -213,10 +218,19 @@
     <t>NS</t>
   </si>
   <si>
+    <t>https://browser.ihtsdotools.org/?perspective=full&amp;conceptId1=159005005&amp;edition=MAIN&amp;release=&amp;languages=en</t>
+  </si>
+  <si>
     <t>20 Gauge Insertion Date</t>
   </si>
   <si>
+    <t>Table</t>
+  </si>
+  <si>
     <t>CPA</t>
+  </si>
+  <si>
+    <t>DATETIMEEVENTS</t>
   </si>
   <si>
     <t>source</t>
@@ -226,6 +240,9 @@
   </si>
   <si>
     <t>label</t>
+  </si>
+  <si>
+    <t>Level</t>
   </si>
   <si>
     <t xml:space="preserve">https://biomedit.ch/rdf/sphn-schema/sphn#hasSubjectPseudoIdentifier
@@ -240,7 +257,28 @@
 </t>
   </si>
   <si>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasDescription</t>
+  </si>
+  <si>
     <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasSubjectPseudoIdentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://biomedit.ch/rdf/sphn-schema/sphn#hasDataFile
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://biomedit.ch/rdf/sphn-schema/sphn#Result
+</t>
+  </si>
+  <si>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://biomedit.ch/rdf/sphn-schema/sphn#Quantity
+</t>
+  </si>
+  <si>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasQuantity</t>
   </si>
 </sst>
 </file>
@@ -250,7 +288,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="22">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -325,6 +363,43 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <color rgb="FF8B0000"/>
+      <name val="Sans-serif"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Sans-serif"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -371,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -426,6 +501,9 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -438,14 +516,36 @@
     <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,6 +556,14 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -870,12 +978,12 @@
       <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
-      <c r="AF2" s="8" t="s">
-        <v>36</v>
+      <c r="AF2" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="AG2" s="7"/>
       <c r="AH2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AI2" s="7"/>
       <c r="AJ2" s="7"/>
@@ -887,11 +995,11 @@
       <c r="AN2" s="7"/>
       <c r="AO2" s="7"/>
       <c r="AP2" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AQ2" s="7"/>
       <c r="AR2" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AS2" s="7"/>
       <c r="AT2" s="8" t="s">
@@ -903,7 +1011,7 @@
       </c>
       <c r="AW2" s="7"/>
       <c r="AX2" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AY2" s="7"/>
       <c r="AZ2" s="7"/>
@@ -911,43 +1019,43 @@
     <row r="3">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S3" s="9"/>
       <c r="T3" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U3" s="9"/>
       <c r="V3" s="7"/>
@@ -960,14 +1068,16 @@
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
+      <c r="AF3" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM3" s="7"/>
       <c r="AN3" s="7"/>
@@ -981,83 +1091,63 @@
       </c>
       <c r="AS3" s="7"/>
       <c r="AT3" s="8" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AU3" s="7"/>
       <c r="AV3" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AW3" s="7"/>
       <c r="AX3" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AY3" s="7"/>
       <c r="AZ3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="14">
         <v>2258881.0</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C4" s="14"/>
       <c r="D4" s="14">
         <v>42412.0</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="E4" s="14"/>
       <c r="F4" s="14">
         <v>114867.0</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="G4" s="14"/>
       <c r="H4" s="14">
         <v>241992.0</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="I4" s="14"/>
       <c r="J4" s="14">
         <v>226515.0</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="K4" s="14"/>
       <c r="L4" s="15">
         <v>97144.51388888889</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="M4" s="14"/>
       <c r="N4" s="15">
         <v>97144.51388888889</v>
       </c>
-      <c r="O4" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="O4" s="14"/>
       <c r="P4" s="14">
         <v>20889.0</v>
       </c>
-      <c r="Q4" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q4" s="14"/>
       <c r="R4" s="15">
         <v>65409.0</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="14"/>
+      <c r="T4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="T4" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="U4" s="14"/>
       <c r="V4" s="14">
         <v>0.0</v>
       </c>
@@ -1075,16 +1165,14 @@
       </c>
       <c r="AE4" s="7"/>
       <c r="AF4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI4" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="AG4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH4" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI4" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="AJ4" s="14">
         <v>14392.0</v>
@@ -1093,23 +1181,23 @@
       <c r="AL4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="AM4" s="7"/>
+      <c r="AM4" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="AN4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AO4" s="7"/>
       <c r="AP4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ4" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AQ4" s="14"/>
       <c r="AR4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS4" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="AS4" s="9"/>
       <c r="AT4" s="14" t="s">
         <v>57</v>
       </c>
@@ -1119,9 +1207,7 @@
       <c r="AX4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AY4" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="AY4" s="14"/>
       <c r="AZ4" s="7"/>
     </row>
     <row r="5">
@@ -1129,63 +1215,43 @@
       <c r="B5" s="14">
         <v>2258882.0</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C5" s="14"/>
       <c r="D5" s="14">
         <v>42412.0</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="E5" s="14"/>
       <c r="F5" s="14">
         <v>114867.0</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="G5" s="14"/>
       <c r="H5" s="14">
         <v>241992.0</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="I5" s="14"/>
       <c r="J5" s="14">
         <v>226724.0</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="K5" s="14"/>
       <c r="L5" s="15">
         <v>97144.51388888889</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="M5" s="14"/>
       <c r="N5" s="15">
         <v>97144.51388888889</v>
       </c>
-      <c r="O5" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="O5" s="14"/>
       <c r="P5" s="14">
         <v>20889.0</v>
       </c>
-      <c r="Q5" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q5" s="14"/>
       <c r="R5" s="15">
         <v>97144.0</v>
       </c>
-      <c r="S5" s="8" t="s">
+      <c r="S5" s="14"/>
+      <c r="T5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="T5" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="U5" s="14"/>
       <c r="V5" s="14">
         <v>0.0</v>
       </c>
@@ -1203,41 +1269,39 @@
       </c>
       <c r="AE5" s="7"/>
       <c r="AF5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI5" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="AG5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH5" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI5" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="AJ5" s="14">
         <v>14495.0</v>
       </c>
       <c r="AK5" s="7"/>
       <c r="AL5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AM5" s="7"/>
       <c r="AN5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AO5" s="7"/>
       <c r="AP5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ5" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AQ5" s="14"/>
       <c r="AR5" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS5" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="AS5" s="9"/>
       <c r="AT5" s="14" t="s">
         <v>57</v>
       </c>
@@ -1247,9 +1311,7 @@
       <c r="AX5" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AY5" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="AY5" s="14"/>
       <c r="AZ5" s="7"/>
     </row>
     <row r="6">
@@ -1257,63 +1319,43 @@
       <c r="B6" s="9">
         <v>2258883.0</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="C6" s="9"/>
       <c r="D6" s="9">
         <v>42412.0</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="E6" s="9"/>
       <c r="F6" s="14">
         <v>114867.0</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="G6" s="14"/>
       <c r="H6" s="9">
         <v>241992.0</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="I6" s="14"/>
       <c r="J6" s="9">
         <v>225755.0</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="K6" s="14"/>
       <c r="L6" s="15">
         <v>97144.60208333333</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="M6" s="14"/>
       <c r="N6" s="15">
         <v>97144.60277777778</v>
       </c>
-      <c r="O6" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="O6" s="14"/>
       <c r="P6" s="9">
         <v>21290.0</v>
       </c>
-      <c r="Q6" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q6" s="14"/>
       <c r="R6" s="15">
         <v>97144.60277777778</v>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="S6" s="14"/>
+      <c r="T6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="T6" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="U6" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="U6" s="9"/>
       <c r="V6" s="14">
         <v>0.0</v>
       </c>
@@ -1334,40 +1376,36 @@
         <v>61</v>
       </c>
       <c r="AG6" s="8" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AH6" s="14" t="s">
         <v>61</v>
       </c>
       <c r="AI6" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AJ6" s="14">
         <v>14182.0</v>
       </c>
       <c r="AK6" s="7"/>
       <c r="AL6" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AM6" s="7"/>
       <c r="AN6" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AO6" s="7"/>
       <c r="AP6" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ6" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AQ6" s="14"/>
       <c r="AR6" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS6" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="AS6" s="9"/>
       <c r="AT6" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AU6" s="7"/>
       <c r="AV6" s="7"/>
@@ -1375,9 +1413,7 @@
       <c r="AX6" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AY6" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="AY6" s="14"/>
       <c r="AZ6" s="7"/>
     </row>
     <row r="7">
@@ -1385,63 +1421,43 @@
       <c r="B7" s="14">
         <v>2258884.0</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C7" s="14"/>
       <c r="D7" s="14">
         <v>42412.0</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="E7" s="14"/>
       <c r="F7" s="14">
         <v>114867.0</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="G7" s="14"/>
       <c r="H7" s="14">
         <v>241992.0</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="I7" s="14"/>
       <c r="J7" s="14">
         <v>225755.0</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="K7" s="14"/>
       <c r="L7" s="15">
         <v>97144.60416666667</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="M7" s="14"/>
       <c r="N7" s="15">
         <v>97144.9701388889</v>
       </c>
-      <c r="O7" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="O7" s="14"/>
       <c r="P7" s="14">
         <v>16053.0</v>
       </c>
-      <c r="Q7" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q7" s="14"/>
       <c r="R7" s="15">
         <v>97144.96944444445</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="S7" s="14"/>
+      <c r="T7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="T7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="U7" s="14"/>
       <c r="V7" s="14">
         <v>0.0</v>
       </c>
@@ -1459,43 +1475,39 @@
       </c>
       <c r="AE7" s="7"/>
       <c r="AF7" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG7" s="8" t="s">
-        <v>48</v>
+        <v>65</v>
+      </c>
+      <c r="AG7" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="AH7" s="14" t="s">
         <v>61</v>
       </c>
       <c r="AI7" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AJ7" s="14">
         <v>14182.0</v>
       </c>
       <c r="AK7" s="7"/>
       <c r="AL7" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AM7" s="7"/>
       <c r="AN7" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AO7" s="7"/>
       <c r="AP7" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ7" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AQ7" s="14"/>
       <c r="AR7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS7" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="AS7" s="9"/>
       <c r="AT7" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AU7" s="7"/>
       <c r="AV7" s="7"/>
@@ -1503,9 +1515,7 @@
       <c r="AX7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AY7" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="AY7" s="14"/>
       <c r="AZ7" s="7"/>
     </row>
     <row r="8">
@@ -1513,63 +1523,43 @@
       <c r="B8" s="14">
         <v>2258885.0</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C8" s="14"/>
       <c r="D8" s="14">
         <v>42412.0</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="E8" s="14"/>
       <c r="F8" s="14">
         <v>114867.0</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="G8" s="14"/>
       <c r="H8" s="14">
         <v>241992.0</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="I8" s="14"/>
       <c r="J8" s="14">
         <v>225755.0</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="K8" s="14"/>
       <c r="L8" s="15">
         <v>97144.68194444444</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="M8" s="14"/>
       <c r="N8" s="15">
         <v>97144.68194444444</v>
       </c>
-      <c r="O8" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="O8" s="14"/>
       <c r="P8" s="14">
         <v>21290.0</v>
       </c>
-      <c r="Q8" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q8" s="14"/>
       <c r="R8" s="15">
         <v>97144.0</v>
       </c>
-      <c r="S8" s="8" t="s">
+      <c r="S8" s="14"/>
+      <c r="T8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="T8" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="U8" s="14"/>
       <c r="V8" s="14">
         <v>0.0</v>
       </c>
@@ -1590,40 +1580,36 @@
         <v>61</v>
       </c>
       <c r="AG8" s="8" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AH8" s="14" t="s">
         <v>61</v>
       </c>
       <c r="AI8" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AJ8" s="14">
         <v>14182.0</v>
       </c>
       <c r="AK8" s="7"/>
       <c r="AL8" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AM8" s="7"/>
       <c r="AN8" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AO8" s="7"/>
       <c r="AP8" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ8" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AQ8" s="14"/>
       <c r="AR8" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS8" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="AS8" s="9"/>
       <c r="AT8" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AU8" s="7"/>
       <c r="AV8" s="7"/>
@@ -1631,9 +1617,7 @@
       <c r="AX8" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AY8" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="AY8" s="14"/>
       <c r="AZ8" s="7"/>
     </row>
     <row r="9">
@@ -1641,63 +1625,43 @@
       <c r="B9" s="9">
         <v>2258886.0</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="C9" s="9"/>
       <c r="D9" s="9">
         <v>42412.0</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="E9" s="9"/>
       <c r="F9" s="14">
         <v>114867.0</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="G9" s="14"/>
       <c r="H9" s="9">
         <v>241992.0</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="I9" s="14"/>
       <c r="J9" s="9">
         <v>225755.0</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="K9" s="14"/>
       <c r="L9" s="15">
         <v>97144.8451388889</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="M9" s="14"/>
       <c r="N9" s="15">
         <v>97144.9701388889</v>
       </c>
-      <c r="O9" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="O9" s="14"/>
       <c r="P9" s="9">
         <v>16053.0</v>
       </c>
-      <c r="Q9" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q9" s="14"/>
       <c r="R9" s="15">
         <v>97144.9701388889</v>
       </c>
-      <c r="S9" s="8" t="s">
+      <c r="S9" s="14"/>
+      <c r="T9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="T9" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="U9" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="U9" s="9"/>
       <c r="V9" s="14">
         <v>0.0</v>
       </c>
@@ -1715,43 +1679,39 @@
       </c>
       <c r="AE9" s="7"/>
       <c r="AF9" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG9" s="8" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="AH9" s="14" t="s">
         <v>61</v>
       </c>
       <c r="AI9" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AJ9" s="14">
         <v>14182.0</v>
       </c>
       <c r="AK9" s="7"/>
       <c r="AL9" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AM9" s="7"/>
       <c r="AN9" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AO9" s="7"/>
       <c r="AP9" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ9" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AQ9" s="14"/>
       <c r="AR9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS9" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="AS9" s="9"/>
       <c r="AT9" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AU9" s="7"/>
       <c r="AV9" s="7"/>
@@ -1759,9 +1719,7 @@
       <c r="AX9" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AY9" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="AY9" s="14"/>
       <c r="AZ9" s="7"/>
     </row>
     <row r="10">
@@ -1769,63 +1727,43 @@
       <c r="B10" s="14">
         <v>2258887.0</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C10" s="14"/>
       <c r="D10" s="14">
         <v>42412.0</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="E10" s="14"/>
       <c r="F10" s="14">
         <v>114867.0</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="G10" s="14"/>
       <c r="H10" s="14">
         <v>241992.0</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="I10" s="14"/>
       <c r="J10" s="14">
         <v>225755.0</v>
       </c>
-      <c r="K10" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="K10" s="14"/>
       <c r="L10" s="15">
         <v>97144.875</v>
       </c>
-      <c r="M10" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="M10" s="14"/>
       <c r="N10" s="15">
         <v>97144.9701388889</v>
       </c>
-      <c r="O10" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="O10" s="14"/>
       <c r="P10" s="14">
         <v>16053.0</v>
       </c>
-      <c r="Q10" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q10" s="14"/>
       <c r="R10" s="15">
         <v>97144.9701388889</v>
       </c>
-      <c r="S10" s="8" t="s">
+      <c r="S10" s="14"/>
+      <c r="T10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="T10" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="U10" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="U10" s="14"/>
       <c r="V10" s="14">
         <v>0.0</v>
       </c>
@@ -1843,43 +1781,39 @@
       </c>
       <c r="AE10" s="7"/>
       <c r="AF10" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG10" s="8" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="AH10" s="14" t="s">
         <v>61</v>
       </c>
       <c r="AI10" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AJ10" s="14">
         <v>14182.0</v>
       </c>
       <c r="AK10" s="7"/>
       <c r="AL10" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AM10" s="7"/>
       <c r="AN10" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AO10" s="7"/>
       <c r="AP10" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ10" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AQ10" s="14"/>
       <c r="AR10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS10" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="AS10" s="9"/>
       <c r="AT10" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AU10" s="7"/>
       <c r="AV10" s="7"/>
@@ -1887,9 +1821,7 @@
       <c r="AX10" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AY10" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="AY10" s="14"/>
       <c r="AZ10" s="7"/>
     </row>
     <row r="11">
@@ -1897,63 +1829,43 @@
       <c r="B11" s="14">
         <v>2258888.0</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C11" s="14"/>
       <c r="D11" s="14">
         <v>42412.0</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="E11" s="14"/>
       <c r="F11" s="14">
         <v>114867.0</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="G11" s="14"/>
       <c r="H11" s="14">
         <v>241992.0</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="I11" s="14"/>
       <c r="J11" s="14">
         <v>225755.0</v>
       </c>
-      <c r="K11" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="K11" s="14"/>
       <c r="L11" s="15">
         <v>97145.17916666667</v>
       </c>
-      <c r="M11" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="M11" s="14"/>
       <c r="N11" s="15">
         <v>97145.17916666667</v>
       </c>
-      <c r="O11" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="O11" s="14"/>
       <c r="P11" s="14">
         <v>16053.0</v>
       </c>
-      <c r="Q11" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q11" s="14"/>
       <c r="R11" s="15">
         <v>97144.0</v>
       </c>
-      <c r="S11" s="8" t="s">
+      <c r="S11" s="14"/>
+      <c r="T11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="T11" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="U11" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="U11" s="14"/>
       <c r="V11" s="14">
         <v>0.0</v>
       </c>
@@ -1971,43 +1883,39 @@
       </c>
       <c r="AE11" s="7"/>
       <c r="AF11" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG11" s="8" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="AH11" s="14" t="s">
         <v>61</v>
       </c>
       <c r="AI11" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AJ11" s="14">
         <v>14182.0</v>
       </c>
       <c r="AK11" s="7"/>
       <c r="AL11" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AM11" s="7"/>
       <c r="AN11" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AO11" s="7"/>
       <c r="AP11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ11" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AQ11" s="14"/>
       <c r="AR11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS11" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="AS11" s="9"/>
       <c r="AT11" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AU11" s="7"/>
       <c r="AV11" s="7"/>
@@ -2015,9 +1923,7 @@
       <c r="AX11" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AY11" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="AY11" s="14"/>
       <c r="AZ11" s="7"/>
     </row>
     <row r="12">
@@ -2025,63 +1931,43 @@
       <c r="B12" s="9">
         <v>2258889.0</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="C12" s="9"/>
       <c r="D12" s="9">
         <v>42412.0</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="E12" s="9"/>
       <c r="F12" s="14">
         <v>114867.0</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="G12" s="14"/>
       <c r="H12" s="9">
         <v>241992.0</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="I12" s="14"/>
       <c r="J12" s="9">
         <v>225754.0</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="K12" s="14"/>
       <c r="L12" s="15">
         <v>97145.20833333333</v>
       </c>
-      <c r="M12" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="M12" s="14"/>
       <c r="N12" s="15">
         <v>97145.20902777778</v>
       </c>
-      <c r="O12" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="O12" s="14"/>
       <c r="P12" s="9">
         <v>16053.0</v>
       </c>
-      <c r="Q12" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q12" s="14"/>
       <c r="R12" s="15">
         <v>97145.20902777778</v>
       </c>
-      <c r="S12" s="8" t="s">
+      <c r="S12" s="14"/>
+      <c r="T12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="T12" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="U12" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="U12" s="9"/>
       <c r="V12" s="14">
         <v>0.0</v>
       </c>
@@ -2099,43 +1985,39 @@
       </c>
       <c r="AE12" s="7"/>
       <c r="AF12" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG12" s="8" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="AH12" s="14" t="s">
         <v>61</v>
       </c>
       <c r="AI12" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AJ12" s="14">
         <v>14181.0</v>
       </c>
       <c r="AK12" s="7"/>
       <c r="AL12" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AM12" s="7"/>
       <c r="AN12" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AO12" s="7"/>
       <c r="AP12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ12" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AQ12" s="14"/>
       <c r="AR12" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS12" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="AS12" s="9"/>
       <c r="AT12" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AU12" s="7"/>
       <c r="AV12" s="7"/>
@@ -2143,9 +2025,7 @@
       <c r="AX12" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AY12" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="AY12" s="14"/>
       <c r="AZ12" s="7"/>
     </row>
     <row r="13">
@@ -2153,63 +2033,43 @@
       <c r="B13" s="14">
         <v>2258890.0</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C13" s="14"/>
       <c r="D13" s="14">
         <v>42412.0</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="E13" s="14"/>
       <c r="F13" s="14">
         <v>114867.0</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="G13" s="14"/>
       <c r="H13" s="14">
         <v>241992.0</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="I13" s="14"/>
       <c r="J13" s="14">
         <v>225754.0</v>
       </c>
-      <c r="K13" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="K13" s="14"/>
       <c r="L13" s="15">
         <v>97145.35763888889</v>
       </c>
-      <c r="M13" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="M13" s="14"/>
       <c r="N13" s="15">
         <v>97145.35763888889</v>
       </c>
-      <c r="O13" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="O13" s="14"/>
       <c r="P13" s="14">
         <v>18462.0</v>
       </c>
-      <c r="Q13" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q13" s="14"/>
       <c r="R13" s="15">
         <v>97145.0</v>
       </c>
-      <c r="S13" s="8" t="s">
+      <c r="S13" s="14"/>
+      <c r="T13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="T13" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="U13" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="U13" s="14"/>
       <c r="V13" s="14">
         <v>0.0</v>
       </c>
@@ -2230,40 +2090,36 @@
         <v>61</v>
       </c>
       <c r="AG13" s="8" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AH13" s="14" t="s">
         <v>61</v>
       </c>
       <c r="AI13" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AJ13" s="14">
         <v>14181.0</v>
       </c>
       <c r="AK13" s="7"/>
       <c r="AL13" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AM13" s="7"/>
       <c r="AN13" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AO13" s="7"/>
       <c r="AP13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ13" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AQ13" s="14"/>
       <c r="AR13" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS13" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="AS13" s="9"/>
       <c r="AT13" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AU13" s="7"/>
       <c r="AV13" s="7"/>
@@ -2271,9 +2127,7 @@
       <c r="AX13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AY13" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="AY13" s="14"/>
       <c r="AZ13" s="7"/>
     </row>
     <row r="14">
@@ -2281,63 +2135,43 @@
       <c r="B14" s="14">
         <v>2258891.0</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C14" s="14"/>
       <c r="D14" s="14">
         <v>42412.0</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="E14" s="14"/>
       <c r="F14" s="14">
         <v>114867.0</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="G14" s="14"/>
       <c r="H14" s="14">
         <v>241992.0</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="I14" s="14"/>
       <c r="J14" s="14">
         <v>225755.0</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="K14" s="14"/>
       <c r="L14" s="15">
         <v>97145.35763888889</v>
       </c>
-      <c r="M14" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="M14" s="14"/>
       <c r="N14" s="15">
         <v>97145.35763888889</v>
       </c>
-      <c r="O14" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="O14" s="14"/>
       <c r="P14" s="14">
         <v>18462.0</v>
       </c>
-      <c r="Q14" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q14" s="14"/>
       <c r="R14" s="15">
         <v>97144.0</v>
       </c>
-      <c r="S14" s="8" t="s">
+      <c r="S14" s="14"/>
+      <c r="T14" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="T14" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="U14" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="U14" s="14"/>
       <c r="V14" s="14">
         <v>0.0</v>
       </c>
@@ -2358,40 +2192,36 @@
         <v>61</v>
       </c>
       <c r="AG14" s="8" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AH14" s="14" t="s">
         <v>61</v>
       </c>
       <c r="AI14" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AJ14" s="14">
         <v>14182.0</v>
       </c>
       <c r="AK14" s="7"/>
       <c r="AL14" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AM14" s="7"/>
       <c r="AN14" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AO14" s="7"/>
       <c r="AP14" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ14" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AQ14" s="14"/>
       <c r="AR14" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS14" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="AS14" s="9"/>
       <c r="AT14" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AU14" s="7"/>
       <c r="AV14" s="7"/>
@@ -2399,9 +2229,7 @@
       <c r="AX14" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AY14" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="AY14" s="14"/>
       <c r="AZ14" s="7"/>
     </row>
     <row r="15">
@@ -2409,63 +2237,43 @@
       <c r="B15" s="9">
         <v>2258892.0</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="C15" s="9"/>
       <c r="D15" s="9">
         <v>42412.0</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="E15" s="9"/>
       <c r="F15" s="14">
         <v>114867.0</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="G15" s="14"/>
       <c r="H15" s="9">
         <v>241992.0</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="I15" s="14"/>
       <c r="J15" s="9">
         <v>225754.0</v>
       </c>
-      <c r="K15" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="K15" s="14"/>
       <c r="L15" s="15">
         <v>97145.51527777778</v>
       </c>
-      <c r="M15" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="M15" s="14"/>
       <c r="N15" s="15">
         <v>97145.51527777778</v>
       </c>
-      <c r="O15" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="O15" s="14"/>
       <c r="P15" s="9">
         <v>18462.0</v>
       </c>
-      <c r="Q15" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q15" s="14"/>
       <c r="R15" s="15">
         <v>97145.0</v>
       </c>
-      <c r="S15" s="8" t="s">
+      <c r="S15" s="14"/>
+      <c r="T15" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="T15" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="U15" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="U15" s="9"/>
       <c r="V15" s="14">
         <v>0.0</v>
       </c>
@@ -2486,40 +2294,36 @@
         <v>61</v>
       </c>
       <c r="AG15" s="8" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AH15" s="14" t="s">
         <v>61</v>
       </c>
       <c r="AI15" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AJ15" s="14">
         <v>14181.0</v>
       </c>
       <c r="AK15" s="7"/>
       <c r="AL15" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AM15" s="7"/>
       <c r="AN15" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AO15" s="7"/>
       <c r="AP15" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ15" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AQ15" s="14"/>
       <c r="AR15" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS15" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="AS15" s="9"/>
       <c r="AT15" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AU15" s="7"/>
       <c r="AV15" s="7"/>
@@ -2527,9 +2331,7 @@
       <c r="AX15" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AY15" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="AY15" s="14"/>
       <c r="AZ15" s="7"/>
     </row>
     <row r="16">
@@ -2537,63 +2339,43 @@
       <c r="B16" s="14">
         <v>2258893.0</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C16" s="14"/>
       <c r="D16" s="14">
         <v>42412.0</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="E16" s="14"/>
       <c r="F16" s="14">
         <v>114867.0</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="G16" s="14"/>
       <c r="H16" s="14">
         <v>241992.0</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="I16" s="14"/>
       <c r="J16" s="14">
         <v>225755.0</v>
       </c>
-      <c r="K16" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="K16" s="14"/>
       <c r="L16" s="15">
         <v>97145.51527777778</v>
       </c>
-      <c r="M16" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="M16" s="14"/>
       <c r="N16" s="15">
         <v>97145.51527777778</v>
       </c>
-      <c r="O16" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="O16" s="14"/>
       <c r="P16" s="14">
         <v>18462.0</v>
       </c>
-      <c r="Q16" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q16" s="14"/>
       <c r="R16" s="15">
         <v>97144.0</v>
       </c>
-      <c r="S16" s="8" t="s">
+      <c r="S16" s="14"/>
+      <c r="T16" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="T16" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="U16" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="U16" s="14"/>
       <c r="V16" s="14">
         <v>0.0</v>
       </c>
@@ -2614,40 +2396,36 @@
         <v>61</v>
       </c>
       <c r="AG16" s="8" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AH16" s="14" t="s">
         <v>61</v>
       </c>
       <c r="AI16" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AJ16" s="14">
         <v>14182.0</v>
       </c>
       <c r="AK16" s="7"/>
       <c r="AL16" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AM16" s="7"/>
       <c r="AN16" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AO16" s="7"/>
       <c r="AP16" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ16" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AQ16" s="14"/>
       <c r="AR16" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS16" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="AS16" s="9"/>
       <c r="AT16" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AU16" s="7"/>
       <c r="AV16" s="7"/>
@@ -2655,9 +2433,7 @@
       <c r="AX16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AY16" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="AY16" s="14"/>
       <c r="AZ16" s="7"/>
     </row>
     <row r="17">
@@ -2665,63 +2441,43 @@
       <c r="B17" s="14">
         <v>2258894.0</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C17" s="14"/>
       <c r="D17" s="14">
         <v>42412.0</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="E17" s="14"/>
       <c r="F17" s="14">
         <v>114867.0</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="G17" s="14"/>
       <c r="H17" s="14">
         <v>241992.0</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="I17" s="14"/>
       <c r="J17" s="14">
         <v>225754.0</v>
       </c>
-      <c r="K17" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="K17" s="14"/>
       <c r="L17" s="15">
         <v>97145.71041666667</v>
       </c>
-      <c r="M17" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="M17" s="14"/>
       <c r="N17" s="15">
         <v>97145.71041666667</v>
       </c>
-      <c r="O17" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="O17" s="14"/>
       <c r="P17" s="14">
         <v>18462.0</v>
       </c>
-      <c r="Q17" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q17" s="14"/>
       <c r="R17" s="15">
         <v>97145.0</v>
       </c>
-      <c r="S17" s="8" t="s">
+      <c r="S17" s="14"/>
+      <c r="T17" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="T17" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="U17" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="U17" s="14"/>
       <c r="V17" s="14">
         <v>0.0</v>
       </c>
@@ -2742,40 +2498,36 @@
         <v>61</v>
       </c>
       <c r="AG17" s="8" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AH17" s="14" t="s">
         <v>61</v>
       </c>
       <c r="AI17" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AJ17" s="14">
         <v>14181.0</v>
       </c>
       <c r="AK17" s="7"/>
       <c r="AL17" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AM17" s="7"/>
       <c r="AN17" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AO17" s="7"/>
       <c r="AP17" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ17" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AQ17" s="14"/>
       <c r="AR17" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS17" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="AS17" s="9"/>
       <c r="AT17" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AU17" s="7"/>
       <c r="AV17" s="7"/>
@@ -2783,9 +2535,7 @@
       <c r="AX17" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AY17" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="AY17" s="14"/>
       <c r="AZ17" s="7"/>
     </row>
     <row r="18">
@@ -2793,63 +2543,43 @@
       <c r="B18" s="9">
         <v>2258895.0</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="C18" s="9"/>
       <c r="D18" s="9">
         <v>42412.0</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="E18" s="9"/>
       <c r="F18" s="14">
         <v>114867.0</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="G18" s="14"/>
       <c r="H18" s="9">
         <v>241992.0</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="I18" s="14"/>
       <c r="J18" s="9">
         <v>225755.0</v>
       </c>
-      <c r="K18" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="K18" s="14"/>
       <c r="L18" s="15">
         <v>97145.71041666667</v>
       </c>
-      <c r="M18" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="M18" s="14"/>
       <c r="N18" s="15">
         <v>97145.71041666667</v>
       </c>
-      <c r="O18" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="O18" s="14"/>
       <c r="P18" s="9">
         <v>18462.0</v>
       </c>
-      <c r="Q18" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q18" s="14"/>
       <c r="R18" s="15">
         <v>97144.0</v>
       </c>
-      <c r="S18" s="8" t="s">
+      <c r="S18" s="14"/>
+      <c r="T18" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="T18" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="U18" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="U18" s="9"/>
       <c r="V18" s="14">
         <v>0.0</v>
       </c>
@@ -2870,40 +2600,36 @@
         <v>61</v>
       </c>
       <c r="AG18" s="8" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AH18" s="14" t="s">
         <v>61</v>
       </c>
       <c r="AI18" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AJ18" s="14">
         <v>14182.0</v>
       </c>
       <c r="AK18" s="7"/>
       <c r="AL18" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AM18" s="7"/>
       <c r="AN18" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AO18" s="7"/>
       <c r="AP18" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ18" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AQ18" s="14"/>
       <c r="AR18" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS18" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="AS18" s="9"/>
       <c r="AT18" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AU18" s="7"/>
       <c r="AV18" s="7"/>
@@ -2911,9 +2637,7 @@
       <c r="AX18" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AY18" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="AY18" s="14"/>
       <c r="AZ18" s="7"/>
     </row>
     <row r="19">
@@ -2921,63 +2645,43 @@
       <c r="B19" s="14">
         <v>2258896.0</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C19" s="14"/>
       <c r="D19" s="14">
         <v>42412.0</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="E19" s="14"/>
       <c r="F19" s="14">
         <v>114867.0</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="G19" s="14"/>
       <c r="H19" s="14">
         <v>241992.0</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="I19" s="14"/>
       <c r="J19" s="14">
         <v>225754.0</v>
       </c>
-      <c r="K19" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="K19" s="14"/>
       <c r="L19" s="15">
         <v>97145.82986111111</v>
       </c>
-      <c r="M19" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="M19" s="14"/>
       <c r="N19" s="15">
         <v>97145.82986111111</v>
       </c>
-      <c r="O19" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="O19" s="14"/>
       <c r="P19" s="14">
         <v>16037.0</v>
       </c>
-      <c r="Q19" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q19" s="14"/>
       <c r="R19" s="15">
         <v>97145.0</v>
       </c>
-      <c r="S19" s="8" t="s">
+      <c r="S19" s="14"/>
+      <c r="T19" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="T19" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="U19" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="U19" s="14"/>
       <c r="V19" s="14">
         <v>0.0</v>
       </c>
@@ -2998,40 +2702,36 @@
         <v>61</v>
       </c>
       <c r="AG19" s="8" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AH19" s="14" t="s">
         <v>61</v>
       </c>
       <c r="AI19" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AJ19" s="14">
         <v>14181.0</v>
       </c>
       <c r="AK19" s="7"/>
       <c r="AL19" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AM19" s="7"/>
       <c r="AN19" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AO19" s="7"/>
       <c r="AP19" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ19" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AQ19" s="14"/>
       <c r="AR19" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS19" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="AS19" s="9"/>
       <c r="AT19" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AU19" s="7"/>
       <c r="AV19" s="7"/>
@@ -3039,9 +2739,7 @@
       <c r="AX19" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AY19" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="AY19" s="14"/>
       <c r="AZ19" s="7"/>
     </row>
     <row r="20">
@@ -3049,63 +2747,43 @@
       <c r="B20" s="14">
         <v>2258897.0</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C20" s="14"/>
       <c r="D20" s="14">
         <v>42412.0</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="E20" s="14"/>
       <c r="F20" s="14">
         <v>114867.0</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="G20" s="14"/>
       <c r="H20" s="14">
         <v>241992.0</v>
       </c>
-      <c r="I20" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="I20" s="14"/>
       <c r="J20" s="14">
         <v>225755.0</v>
       </c>
-      <c r="K20" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="K20" s="14"/>
       <c r="L20" s="15">
         <v>97145.82986111111</v>
       </c>
-      <c r="M20" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="M20" s="14"/>
       <c r="N20" s="15">
         <v>97145.82986111111</v>
       </c>
-      <c r="O20" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="O20" s="14"/>
       <c r="P20" s="14">
         <v>16037.0</v>
       </c>
-      <c r="Q20" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q20" s="14"/>
       <c r="R20" s="15">
         <v>97144.0</v>
       </c>
-      <c r="S20" s="8" t="s">
+      <c r="S20" s="14"/>
+      <c r="T20" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="T20" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="U20" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="U20" s="14"/>
       <c r="V20" s="14">
         <v>0.0</v>
       </c>
@@ -3126,40 +2804,36 @@
         <v>61</v>
       </c>
       <c r="AG20" s="8" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AH20" s="14" t="s">
         <v>61</v>
       </c>
       <c r="AI20" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AJ20" s="14">
         <v>14182.0</v>
       </c>
       <c r="AK20" s="7"/>
       <c r="AL20" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AM20" s="7"/>
       <c r="AN20" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AO20" s="7"/>
       <c r="AP20" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ20" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AQ20" s="14"/>
       <c r="AR20" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS20" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="AS20" s="9"/>
       <c r="AT20" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AU20" s="7"/>
       <c r="AV20" s="7"/>
@@ -3167,9 +2841,7 @@
       <c r="AX20" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AY20" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="AY20" s="14"/>
       <c r="AZ20" s="7"/>
     </row>
     <row r="21">
@@ -3177,63 +2849,43 @@
       <c r="B21" s="9">
         <v>2258898.0</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="C21" s="9"/>
       <c r="D21" s="9">
         <v>42412.0</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="E21" s="9"/>
       <c r="F21" s="14">
         <v>114867.0</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="G21" s="14"/>
       <c r="H21" s="9">
         <v>241992.0</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="I21" s="14"/>
       <c r="J21" s="9">
         <v>225754.0</v>
       </c>
-      <c r="K21" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="K21" s="14"/>
       <c r="L21" s="15">
         <v>97146.02361111112</v>
       </c>
-      <c r="M21" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="M21" s="14"/>
       <c r="N21" s="15">
         <v>97146.02361111112</v>
       </c>
-      <c r="O21" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="O21" s="14"/>
       <c r="P21" s="9">
         <v>16037.0</v>
       </c>
-      <c r="Q21" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q21" s="14"/>
       <c r="R21" s="15">
         <v>97145.0</v>
       </c>
-      <c r="S21" s="8" t="s">
+      <c r="S21" s="14"/>
+      <c r="T21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="T21" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="U21" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="U21" s="9"/>
       <c r="V21" s="14">
         <v>0.0</v>
       </c>
@@ -3254,40 +2906,36 @@
         <v>61</v>
       </c>
       <c r="AG21" s="8" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AH21" s="14" t="s">
         <v>61</v>
       </c>
       <c r="AI21" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AJ21" s="14">
         <v>14181.0</v>
       </c>
       <c r="AK21" s="7"/>
       <c r="AL21" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AM21" s="7"/>
       <c r="AN21" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AO21" s="7"/>
       <c r="AP21" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ21" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AQ21" s="14"/>
       <c r="AR21" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS21" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="AS21" s="9"/>
       <c r="AT21" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AU21" s="7"/>
       <c r="AV21" s="7"/>
@@ -3295,9 +2943,7 @@
       <c r="AX21" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AY21" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="AY21" s="14"/>
       <c r="AZ21" s="7"/>
     </row>
     <row r="22">
@@ -3305,63 +2951,43 @@
       <c r="B22" s="14">
         <v>2258899.0</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C22" s="14"/>
       <c r="D22" s="14">
         <v>42412.0</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="E22" s="14"/>
       <c r="F22" s="14">
         <v>114867.0</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="G22" s="14"/>
       <c r="H22" s="14">
         <v>241992.0</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="I22" s="14"/>
       <c r="J22" s="14">
         <v>225755.0</v>
       </c>
-      <c r="K22" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="K22" s="14"/>
       <c r="L22" s="15">
         <v>97146.02361111112</v>
       </c>
-      <c r="M22" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="M22" s="14"/>
       <c r="N22" s="15">
         <v>97146.02361111112</v>
       </c>
-      <c r="O22" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="O22" s="14"/>
       <c r="P22" s="14">
         <v>16037.0</v>
       </c>
-      <c r="Q22" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q22" s="14"/>
       <c r="R22" s="15">
         <v>97144.0</v>
       </c>
-      <c r="S22" s="8" t="s">
+      <c r="S22" s="14"/>
+      <c r="T22" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="T22" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="U22" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="U22" s="14"/>
       <c r="V22" s="14">
         <v>0.0</v>
       </c>
@@ -3382,40 +3008,36 @@
         <v>61</v>
       </c>
       <c r="AG22" s="8" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AH22" s="14" t="s">
         <v>61</v>
       </c>
       <c r="AI22" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AJ22" s="14">
         <v>14182.0</v>
       </c>
       <c r="AK22" s="7"/>
       <c r="AL22" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AM22" s="7"/>
       <c r="AN22" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AO22" s="7"/>
       <c r="AP22" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ22" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AQ22" s="14"/>
       <c r="AR22" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS22" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="AS22" s="9"/>
       <c r="AT22" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AU22" s="7"/>
       <c r="AV22" s="7"/>
@@ -3423,9 +3045,7 @@
       <c r="AX22" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AY22" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="AY22" s="14"/>
       <c r="AZ22" s="7"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -3483,12 +3103,6 @@
       <c r="AZ23" s="17"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -3539,16 +3153,6 @@
       <c r="AZ24" s="17"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
@@ -3599,16 +3203,6 @@
       <c r="AZ25" s="17"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
@@ -3659,16 +3253,6 @@
       <c r="AZ26" s="17"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -3719,16 +3303,6 @@
       <c r="AZ27" s="17"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
@@ -3779,16 +3353,6 @@
       <c r="AZ28" s="17"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
@@ -3839,16 +3403,6 @@
       <c r="AZ29" s="17"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
@@ -3899,16 +3453,6 @@
       <c r="AZ30" s="17"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
@@ -3959,18 +3503,8 @@
       <c r="AZ31" s="17"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
@@ -4019,16 +3553,6 @@
       <c r="AZ32" s="17"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="17"/>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -4079,16 +3603,6 @@
       <c r="AZ33" s="17"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="17"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -4139,16 +3653,6 @@
       <c r="AZ34" s="17"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="17"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
@@ -4199,16 +3703,6 @@
       <c r="AZ35" s="17"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="17"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
@@ -56560,312 +56054,573 @@
     <hyperlink r:id="rId26" location="hasIdentifier" ref="P3"/>
     <hyperlink r:id="rId27" location="hasDateTime" ref="R3"/>
     <hyperlink r:id="rId28" location="hasUnit" ref="T3"/>
-    <hyperlink r:id="rId29" location="hasDescriptio" ref="AL3"/>
-    <hyperlink r:id="rId30" location="hasName" ref="AP3"/>
-    <hyperlink r:id="rId31" location="hasSourceSystem" ref="AR3"/>
-    <hyperlink r:id="rId32" location="hasCategory" ref="AT3"/>
-    <hyperlink r:id="rId33" location="hasUnit" ref="AV3"/>
-    <hyperlink r:id="rId34" location="hasEncoding" ref="AX3"/>
-    <hyperlink r:id="rId35" location="string" ref="C4"/>
-    <hyperlink r:id="rId36" location="string" ref="E4"/>
-    <hyperlink r:id="rId37" location="string" ref="G4"/>
-    <hyperlink r:id="rId38" location="string" ref="I4"/>
-    <hyperlink r:id="rId39" location="string" ref="K4"/>
-    <hyperlink r:id="rId40" location="dateTime" ref="M4"/>
-    <hyperlink r:id="rId41" location="dateTime" ref="O4"/>
-    <hyperlink r:id="rId42" location="string" ref="Q4"/>
-    <hyperlink r:id="rId43" location="dateTime" ref="S4"/>
-    <hyperlink r:id="rId44" location="string" ref="U4"/>
-    <hyperlink r:id="rId45" location="string" ref="AG4"/>
-    <hyperlink r:id="rId46" location="string" ref="AI4"/>
-    <hyperlink r:id="rId47" location="string" ref="AQ4"/>
-    <hyperlink r:id="rId48" location="SourceSyste" ref="AS4"/>
-    <hyperlink r:id="rId49" location="DataFile_encodin" ref="AY4"/>
-    <hyperlink r:id="rId50" location="string" ref="C5"/>
-    <hyperlink r:id="rId51" location="string" ref="E5"/>
-    <hyperlink r:id="rId52" location="string" ref="G5"/>
-    <hyperlink r:id="rId53" location="string" ref="I5"/>
-    <hyperlink r:id="rId54" location="string" ref="K5"/>
-    <hyperlink r:id="rId55" location="dateTime" ref="M5"/>
-    <hyperlink r:id="rId56" location="dateTime" ref="O5"/>
-    <hyperlink r:id="rId57" location="string" ref="Q5"/>
-    <hyperlink r:id="rId58" location="dateTime" ref="S5"/>
-    <hyperlink r:id="rId59" location="string" ref="U5"/>
-    <hyperlink r:id="rId60" location="string" ref="AG5"/>
-    <hyperlink r:id="rId61" location="string" ref="AI5"/>
-    <hyperlink r:id="rId62" location="string" ref="AQ5"/>
-    <hyperlink r:id="rId63" location="SourceSyste" ref="AS5"/>
-    <hyperlink r:id="rId64" location="DataFile_encodin" ref="AY5"/>
-    <hyperlink r:id="rId65" location="string" ref="C6"/>
-    <hyperlink r:id="rId66" location="string" ref="E6"/>
-    <hyperlink r:id="rId67" location="string" ref="G6"/>
-    <hyperlink r:id="rId68" location="string" ref="I6"/>
-    <hyperlink r:id="rId69" location="string" ref="K6"/>
-    <hyperlink r:id="rId70" location="dateTime" ref="M6"/>
-    <hyperlink r:id="rId71" location="dateTime" ref="O6"/>
-    <hyperlink r:id="rId72" location="string" ref="Q6"/>
-    <hyperlink r:id="rId73" location="dateTime" ref="S6"/>
-    <hyperlink r:id="rId74" location="string" ref="U6"/>
-    <hyperlink r:id="rId75" location="string" ref="AG6"/>
-    <hyperlink r:id="rId76" location="string" ref="AI6"/>
-    <hyperlink r:id="rId77" location="string" ref="AQ6"/>
-    <hyperlink r:id="rId78" location="SourceSyste" ref="AS6"/>
-    <hyperlink r:id="rId79" location="DataFile_encodin" ref="AY6"/>
-    <hyperlink r:id="rId80" location="string" ref="C7"/>
-    <hyperlink r:id="rId81" location="string" ref="E7"/>
-    <hyperlink r:id="rId82" location="string" ref="G7"/>
-    <hyperlink r:id="rId83" location="string" ref="I7"/>
-    <hyperlink r:id="rId84" location="string" ref="K7"/>
-    <hyperlink r:id="rId85" location="dateTime" ref="M7"/>
-    <hyperlink r:id="rId86" location="dateTime" ref="O7"/>
-    <hyperlink r:id="rId87" location="string" ref="Q7"/>
-    <hyperlink r:id="rId88" location="dateTime" ref="S7"/>
-    <hyperlink r:id="rId89" location="string" ref="U7"/>
-    <hyperlink r:id="rId90" location="string" ref="AG7"/>
-    <hyperlink r:id="rId91" location="string" ref="AI7"/>
-    <hyperlink r:id="rId92" location="string" ref="AQ7"/>
-    <hyperlink r:id="rId93" location="SourceSyste" ref="AS7"/>
-    <hyperlink r:id="rId94" location="DataFile_encodin" ref="AY7"/>
-    <hyperlink r:id="rId95" location="string" ref="C8"/>
-    <hyperlink r:id="rId96" location="string" ref="E8"/>
-    <hyperlink r:id="rId97" location="string" ref="G8"/>
-    <hyperlink r:id="rId98" location="string" ref="I8"/>
-    <hyperlink r:id="rId99" location="string" ref="K8"/>
-    <hyperlink r:id="rId100" location="dateTime" ref="M8"/>
-    <hyperlink r:id="rId101" location="dateTime" ref="O8"/>
-    <hyperlink r:id="rId102" location="string" ref="Q8"/>
-    <hyperlink r:id="rId103" location="dateTime" ref="S8"/>
-    <hyperlink r:id="rId104" location="string" ref="U8"/>
-    <hyperlink r:id="rId105" location="string" ref="AG8"/>
-    <hyperlink r:id="rId106" location="string" ref="AI8"/>
-    <hyperlink r:id="rId107" location="string" ref="AQ8"/>
-    <hyperlink r:id="rId108" location="SourceSyste" ref="AS8"/>
-    <hyperlink r:id="rId109" location="DataFile_encodin" ref="AY8"/>
-    <hyperlink r:id="rId110" location="string" ref="C9"/>
-    <hyperlink r:id="rId111" location="string" ref="E9"/>
-    <hyperlink r:id="rId112" location="string" ref="G9"/>
-    <hyperlink r:id="rId113" location="string" ref="I9"/>
-    <hyperlink r:id="rId114" location="string" ref="K9"/>
-    <hyperlink r:id="rId115" location="dateTime" ref="M9"/>
-    <hyperlink r:id="rId116" location="dateTime" ref="O9"/>
-    <hyperlink r:id="rId117" location="string" ref="Q9"/>
-    <hyperlink r:id="rId118" location="dateTime" ref="S9"/>
-    <hyperlink r:id="rId119" location="string" ref="U9"/>
-    <hyperlink r:id="rId120" location="string" ref="AG9"/>
-    <hyperlink r:id="rId121" location="string" ref="AI9"/>
-    <hyperlink r:id="rId122" location="string" ref="AQ9"/>
-    <hyperlink r:id="rId123" location="SourceSyste" ref="AS9"/>
-    <hyperlink r:id="rId124" location="DataFile_encodin" ref="AY9"/>
-    <hyperlink r:id="rId125" location="string" ref="C10"/>
-    <hyperlink r:id="rId126" location="string" ref="E10"/>
-    <hyperlink r:id="rId127" location="string" ref="G10"/>
-    <hyperlink r:id="rId128" location="string" ref="I10"/>
-    <hyperlink r:id="rId129" location="string" ref="K10"/>
-    <hyperlink r:id="rId130" location="dateTime" ref="M10"/>
-    <hyperlink r:id="rId131" location="dateTime" ref="O10"/>
-    <hyperlink r:id="rId132" location="string" ref="Q10"/>
-    <hyperlink r:id="rId133" location="dateTime" ref="S10"/>
-    <hyperlink r:id="rId134" location="string" ref="U10"/>
-    <hyperlink r:id="rId135" location="string" ref="AG10"/>
-    <hyperlink r:id="rId136" location="string" ref="AI10"/>
-    <hyperlink r:id="rId137" location="string" ref="AQ10"/>
-    <hyperlink r:id="rId138" location="SourceSyste" ref="AS10"/>
-    <hyperlink r:id="rId139" location="DataFile_encodin" ref="AY10"/>
-    <hyperlink r:id="rId140" location="string" ref="C11"/>
-    <hyperlink r:id="rId141" location="string" ref="E11"/>
-    <hyperlink r:id="rId142" location="string" ref="G11"/>
-    <hyperlink r:id="rId143" location="string" ref="I11"/>
-    <hyperlink r:id="rId144" location="string" ref="K11"/>
-    <hyperlink r:id="rId145" location="dateTime" ref="M11"/>
-    <hyperlink r:id="rId146" location="dateTime" ref="O11"/>
-    <hyperlink r:id="rId147" location="string" ref="Q11"/>
-    <hyperlink r:id="rId148" location="dateTime" ref="S11"/>
-    <hyperlink r:id="rId149" location="string" ref="U11"/>
-    <hyperlink r:id="rId150" location="string" ref="AG11"/>
-    <hyperlink r:id="rId151" location="string" ref="AI11"/>
-    <hyperlink r:id="rId152" location="string" ref="AQ11"/>
-    <hyperlink r:id="rId153" location="SourceSyste" ref="AS11"/>
-    <hyperlink r:id="rId154" location="DataFile_encodin" ref="AY11"/>
-    <hyperlink r:id="rId155" location="string" ref="C12"/>
-    <hyperlink r:id="rId156" location="string" ref="E12"/>
-    <hyperlink r:id="rId157" location="string" ref="G12"/>
-    <hyperlink r:id="rId158" location="string" ref="I12"/>
-    <hyperlink r:id="rId159" location="string" ref="K12"/>
-    <hyperlink r:id="rId160" location="dateTime" ref="M12"/>
-    <hyperlink r:id="rId161" location="dateTime" ref="O12"/>
-    <hyperlink r:id="rId162" location="string" ref="Q12"/>
-    <hyperlink r:id="rId163" location="dateTime" ref="S12"/>
-    <hyperlink r:id="rId164" location="string" ref="U12"/>
-    <hyperlink r:id="rId165" location="string" ref="AG12"/>
-    <hyperlink r:id="rId166" location="string" ref="AI12"/>
-    <hyperlink r:id="rId167" location="string" ref="AQ12"/>
-    <hyperlink r:id="rId168" location="SourceSyste" ref="AS12"/>
-    <hyperlink r:id="rId169" location="DataFile_encodin" ref="AY12"/>
-    <hyperlink r:id="rId170" location="string" ref="C13"/>
-    <hyperlink r:id="rId171" location="string" ref="E13"/>
-    <hyperlink r:id="rId172" location="string" ref="G13"/>
-    <hyperlink r:id="rId173" location="string" ref="I13"/>
-    <hyperlink r:id="rId174" location="string" ref="K13"/>
-    <hyperlink r:id="rId175" location="dateTime" ref="M13"/>
-    <hyperlink r:id="rId176" location="dateTime" ref="O13"/>
-    <hyperlink r:id="rId177" location="string" ref="Q13"/>
-    <hyperlink r:id="rId178" location="dateTime" ref="S13"/>
-    <hyperlink r:id="rId179" location="string" ref="U13"/>
-    <hyperlink r:id="rId180" location="string" ref="AG13"/>
-    <hyperlink r:id="rId181" location="string" ref="AI13"/>
-    <hyperlink r:id="rId182" location="string" ref="AQ13"/>
-    <hyperlink r:id="rId183" location="SourceSyste" ref="AS13"/>
-    <hyperlink r:id="rId184" location="DataFile_encodin" ref="AY13"/>
-    <hyperlink r:id="rId185" location="string" ref="C14"/>
-    <hyperlink r:id="rId186" location="string" ref="E14"/>
-    <hyperlink r:id="rId187" location="string" ref="G14"/>
-    <hyperlink r:id="rId188" location="string" ref="I14"/>
-    <hyperlink r:id="rId189" location="string" ref="K14"/>
-    <hyperlink r:id="rId190" location="dateTime" ref="M14"/>
-    <hyperlink r:id="rId191" location="dateTime" ref="O14"/>
-    <hyperlink r:id="rId192" location="string" ref="Q14"/>
-    <hyperlink r:id="rId193" location="dateTime" ref="S14"/>
-    <hyperlink r:id="rId194" location="string" ref="U14"/>
-    <hyperlink r:id="rId195" location="string" ref="AG14"/>
-    <hyperlink r:id="rId196" location="string" ref="AI14"/>
-    <hyperlink r:id="rId197" location="string" ref="AQ14"/>
-    <hyperlink r:id="rId198" location="SourceSyste" ref="AS14"/>
-    <hyperlink r:id="rId199" location="DataFile_encodin" ref="AY14"/>
-    <hyperlink r:id="rId200" location="string" ref="C15"/>
-    <hyperlink r:id="rId201" location="string" ref="E15"/>
-    <hyperlink r:id="rId202" location="string" ref="G15"/>
-    <hyperlink r:id="rId203" location="string" ref="I15"/>
-    <hyperlink r:id="rId204" location="string" ref="K15"/>
-    <hyperlink r:id="rId205" location="dateTime" ref="M15"/>
-    <hyperlink r:id="rId206" location="dateTime" ref="O15"/>
-    <hyperlink r:id="rId207" location="string" ref="Q15"/>
-    <hyperlink r:id="rId208" location="dateTime" ref="S15"/>
-    <hyperlink r:id="rId209" location="string" ref="U15"/>
-    <hyperlink r:id="rId210" location="string" ref="AG15"/>
-    <hyperlink r:id="rId211" location="string" ref="AI15"/>
-    <hyperlink r:id="rId212" location="string" ref="AQ15"/>
-    <hyperlink r:id="rId213" location="SourceSyste" ref="AS15"/>
-    <hyperlink r:id="rId214" location="DataFile_encodin" ref="AY15"/>
-    <hyperlink r:id="rId215" location="string" ref="C16"/>
-    <hyperlink r:id="rId216" location="string" ref="E16"/>
-    <hyperlink r:id="rId217" location="string" ref="G16"/>
-    <hyperlink r:id="rId218" location="string" ref="I16"/>
-    <hyperlink r:id="rId219" location="string" ref="K16"/>
-    <hyperlink r:id="rId220" location="dateTime" ref="M16"/>
-    <hyperlink r:id="rId221" location="dateTime" ref="O16"/>
-    <hyperlink r:id="rId222" location="string" ref="Q16"/>
-    <hyperlink r:id="rId223" location="dateTime" ref="S16"/>
-    <hyperlink r:id="rId224" location="string" ref="U16"/>
-    <hyperlink r:id="rId225" location="string" ref="AG16"/>
-    <hyperlink r:id="rId226" location="string" ref="AI16"/>
-    <hyperlink r:id="rId227" location="string" ref="AQ16"/>
-    <hyperlink r:id="rId228" location="SourceSyste" ref="AS16"/>
-    <hyperlink r:id="rId229" location="DataFile_encodin" ref="AY16"/>
-    <hyperlink r:id="rId230" location="string" ref="C17"/>
-    <hyperlink r:id="rId231" location="string" ref="E17"/>
-    <hyperlink r:id="rId232" location="string" ref="G17"/>
-    <hyperlink r:id="rId233" location="string" ref="I17"/>
-    <hyperlink r:id="rId234" location="string" ref="K17"/>
-    <hyperlink r:id="rId235" location="dateTime" ref="M17"/>
-    <hyperlink r:id="rId236" location="dateTime" ref="O17"/>
-    <hyperlink r:id="rId237" location="string" ref="Q17"/>
-    <hyperlink r:id="rId238" location="dateTime" ref="S17"/>
-    <hyperlink r:id="rId239" location="string" ref="U17"/>
-    <hyperlink r:id="rId240" location="string" ref="AG17"/>
-    <hyperlink r:id="rId241" location="string" ref="AI17"/>
-    <hyperlink r:id="rId242" location="string" ref="AQ17"/>
-    <hyperlink r:id="rId243" location="SourceSyste" ref="AS17"/>
-    <hyperlink r:id="rId244" location="DataFile_encodin" ref="AY17"/>
-    <hyperlink r:id="rId245" location="string" ref="C18"/>
-    <hyperlink r:id="rId246" location="string" ref="E18"/>
-    <hyperlink r:id="rId247" location="string" ref="G18"/>
-    <hyperlink r:id="rId248" location="string" ref="I18"/>
-    <hyperlink r:id="rId249" location="string" ref="K18"/>
-    <hyperlink r:id="rId250" location="dateTime" ref="M18"/>
-    <hyperlink r:id="rId251" location="dateTime" ref="O18"/>
-    <hyperlink r:id="rId252" location="string" ref="Q18"/>
-    <hyperlink r:id="rId253" location="dateTime" ref="S18"/>
-    <hyperlink r:id="rId254" location="string" ref="U18"/>
-    <hyperlink r:id="rId255" location="string" ref="AG18"/>
-    <hyperlink r:id="rId256" location="string" ref="AI18"/>
-    <hyperlink r:id="rId257" location="string" ref="AQ18"/>
-    <hyperlink r:id="rId258" location="SourceSyste" ref="AS18"/>
-    <hyperlink r:id="rId259" location="DataFile_encodin" ref="AY18"/>
-    <hyperlink r:id="rId260" location="string" ref="C19"/>
-    <hyperlink r:id="rId261" location="string" ref="E19"/>
-    <hyperlink r:id="rId262" location="string" ref="G19"/>
-    <hyperlink r:id="rId263" location="string" ref="I19"/>
-    <hyperlink r:id="rId264" location="string" ref="K19"/>
-    <hyperlink r:id="rId265" location="dateTime" ref="M19"/>
-    <hyperlink r:id="rId266" location="dateTime" ref="O19"/>
-    <hyperlink r:id="rId267" location="string" ref="Q19"/>
-    <hyperlink r:id="rId268" location="dateTime" ref="S19"/>
-    <hyperlink r:id="rId269" location="string" ref="U19"/>
-    <hyperlink r:id="rId270" location="string" ref="AG19"/>
-    <hyperlink r:id="rId271" location="string" ref="AI19"/>
-    <hyperlink r:id="rId272" location="string" ref="AQ19"/>
-    <hyperlink r:id="rId273" location="SourceSyste" ref="AS19"/>
-    <hyperlink r:id="rId274" location="DataFile_encodin" ref="AY19"/>
-    <hyperlink r:id="rId275" location="string" ref="C20"/>
-    <hyperlink r:id="rId276" location="string" ref="E20"/>
-    <hyperlink r:id="rId277" location="string" ref="G20"/>
-    <hyperlink r:id="rId278" location="string" ref="I20"/>
-    <hyperlink r:id="rId279" location="string" ref="K20"/>
-    <hyperlink r:id="rId280" location="dateTime" ref="M20"/>
-    <hyperlink r:id="rId281" location="dateTime" ref="O20"/>
-    <hyperlink r:id="rId282" location="string" ref="Q20"/>
-    <hyperlink r:id="rId283" location="dateTime" ref="S20"/>
-    <hyperlink r:id="rId284" location="string" ref="U20"/>
-    <hyperlink r:id="rId285" location="string" ref="AG20"/>
-    <hyperlink r:id="rId286" location="string" ref="AI20"/>
-    <hyperlink r:id="rId287" location="string" ref="AQ20"/>
-    <hyperlink r:id="rId288" location="SourceSyste" ref="AS20"/>
-    <hyperlink r:id="rId289" location="DataFile_encodin" ref="AY20"/>
-    <hyperlink r:id="rId290" location="string" ref="C21"/>
-    <hyperlink r:id="rId291" location="string" ref="E21"/>
-    <hyperlink r:id="rId292" location="string" ref="G21"/>
-    <hyperlink r:id="rId293" location="string" ref="I21"/>
-    <hyperlink r:id="rId294" location="string" ref="K21"/>
-    <hyperlink r:id="rId295" location="dateTime" ref="M21"/>
-    <hyperlink r:id="rId296" location="dateTime" ref="O21"/>
-    <hyperlink r:id="rId297" location="string" ref="Q21"/>
-    <hyperlink r:id="rId298" location="dateTime" ref="S21"/>
-    <hyperlink r:id="rId299" location="string" ref="U21"/>
-    <hyperlink r:id="rId300" location="string" ref="AG21"/>
-    <hyperlink r:id="rId301" location="string" ref="AI21"/>
-    <hyperlink r:id="rId302" location="string" ref="AQ21"/>
-    <hyperlink r:id="rId303" location="SourceSyste" ref="AS21"/>
-    <hyperlink r:id="rId304" location="DataFile_encodin" ref="AY21"/>
-    <hyperlink r:id="rId305" location="string" ref="C22"/>
-    <hyperlink r:id="rId306" location="string" ref="E22"/>
-    <hyperlink r:id="rId307" location="string" ref="G22"/>
-    <hyperlink r:id="rId308" location="string" ref="I22"/>
-    <hyperlink r:id="rId309" location="string" ref="K22"/>
-    <hyperlink r:id="rId310" location="dateTime" ref="M22"/>
-    <hyperlink r:id="rId311" location="dateTime" ref="O22"/>
-    <hyperlink r:id="rId312" location="string" ref="Q22"/>
-    <hyperlink r:id="rId313" location="dateTime" ref="S22"/>
-    <hyperlink r:id="rId314" location="string" ref="U22"/>
-    <hyperlink r:id="rId315" location="string" ref="AG22"/>
-    <hyperlink r:id="rId316" location="string" ref="AI22"/>
-    <hyperlink r:id="rId317" location="string" ref="AQ22"/>
-    <hyperlink r:id="rId318" location="SourceSyste" ref="AS22"/>
-    <hyperlink r:id="rId319" location="DataFile_encodin" ref="AY22"/>
-    <hyperlink r:id="rId320" location="hasSubjectPseudoIdentifier" ref="C26"/>
-    <hyperlink r:id="rId321" location="hasAdministrativeCase" ref="C27"/>
-    <hyperlink r:id="rId322" location="hasCareHandling" ref="C28"/>
-    <hyperlink r:id="rId323" location="hasSubjectPseudoIdentifier" ref="C29"/>
-    <hyperlink r:id="rId324" location="hasAdministrativeCase" ref="C30"/>
-    <hyperlink r:id="rId325" location="hasCategory" ref="C31"/>
-    <hyperlink r:id="rId326" location="hasDescriptio" ref="C32"/>
-    <hyperlink r:id="rId327" location="hasDescriptio" ref="C33"/>
-    <hyperlink r:id="rId328" location="hasEncoding" ref="C34"/>
-    <hyperlink r:id="rId329" location="hasUnit" ref="C35"/>
-    <hyperlink r:id="rId330" location="hasSubjectPseudoIdentifier" ref="C36"/>
+    <hyperlink r:id="rId29" location="hasTypeCode" ref="AF3"/>
+    <hyperlink r:id="rId30" location="hasDescriptio" ref="AL3"/>
+    <hyperlink r:id="rId31" location="hasName" ref="AP3"/>
+    <hyperlink r:id="rId32" location="hasSourceSystem" ref="AR3"/>
+    <hyperlink r:id="rId33" location="hasCategory" ref="AT3"/>
+    <hyperlink r:id="rId34" location="hasUnit" ref="AV3"/>
+    <hyperlink r:id="rId35" location="hasEncoding" ref="AX3"/>
+    <hyperlink r:id="rId36" location="string" ref="AI4"/>
+    <hyperlink r:id="rId37" ref="AM4"/>
+    <hyperlink r:id="rId38" ref="AO4"/>
+    <hyperlink r:id="rId39" location="string" ref="AI5"/>
+    <hyperlink r:id="rId40" ref="AM5"/>
+    <hyperlink r:id="rId41" ref="AO5"/>
+    <hyperlink r:id="rId42" ref="AG6"/>
+    <hyperlink r:id="rId43" location="string" ref="AI6"/>
+    <hyperlink r:id="rId44" ref="AG7"/>
+    <hyperlink r:id="rId45" location="string" ref="AI7"/>
+    <hyperlink r:id="rId46" ref="AG8"/>
+    <hyperlink r:id="rId47" location="string" ref="AI8"/>
+    <hyperlink r:id="rId48" ref="AG9"/>
+    <hyperlink r:id="rId49" location="string" ref="AI9"/>
+    <hyperlink r:id="rId50" ref="AG10"/>
+    <hyperlink r:id="rId51" location="string" ref="AI10"/>
+    <hyperlink r:id="rId52" ref="AG11"/>
+    <hyperlink r:id="rId53" location="string" ref="AI11"/>
+    <hyperlink r:id="rId54" ref="AG12"/>
+    <hyperlink r:id="rId55" location="string" ref="AI12"/>
+    <hyperlink r:id="rId56" ref="AG13"/>
+    <hyperlink r:id="rId57" location="string" ref="AI13"/>
+    <hyperlink r:id="rId58" ref="AG14"/>
+    <hyperlink r:id="rId59" location="string" ref="AI14"/>
+    <hyperlink r:id="rId60" ref="AG15"/>
+    <hyperlink r:id="rId61" location="string" ref="AI15"/>
+    <hyperlink r:id="rId62" ref="AG16"/>
+    <hyperlink r:id="rId63" location="string" ref="AI16"/>
+    <hyperlink r:id="rId64" ref="AG17"/>
+    <hyperlink r:id="rId65" location="string" ref="AI17"/>
+    <hyperlink r:id="rId66" ref="AG18"/>
+    <hyperlink r:id="rId67" location="string" ref="AI18"/>
+    <hyperlink r:id="rId68" ref="AG19"/>
+    <hyperlink r:id="rId69" location="string" ref="AI19"/>
+    <hyperlink r:id="rId70" ref="AG20"/>
+    <hyperlink r:id="rId71" location="string" ref="AI20"/>
+    <hyperlink r:id="rId72" ref="AG21"/>
+    <hyperlink r:id="rId73" location="string" ref="AI21"/>
+    <hyperlink r:id="rId74" ref="AG22"/>
+    <hyperlink r:id="rId75" location="string" ref="AI22"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId331"/>
+  <drawing r:id="rId76"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.71"/>
+    <col customWidth="1" min="3" max="3" width="22.71"/>
+    <col customWidth="1" min="4" max="4" width="62.71"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" location="hasSubjectPseudoIdentifier" ref="D4"/>
+    <hyperlink r:id="rId2" location="hasAdministrativeCase" ref="D5"/>
+    <hyperlink r:id="rId3" location="hasCareHandling" ref="D6"/>
+    <hyperlink r:id="rId4" location="hasSubjectPseudoIdentifier" ref="D7"/>
+    <hyperlink r:id="rId5" location="hasAdministrativeCase" ref="D8"/>
+    <hyperlink r:id="rId6" location="hasTypeCode" ref="D9"/>
+    <hyperlink r:id="rId7" location="hasDescription" ref="D10"/>
+    <hyperlink r:id="rId8" location="hasDescription" ref="D11"/>
+    <hyperlink r:id="rId9" location="hasEncoding" ref="D12"/>
+    <hyperlink r:id="rId10" location="hasUnit" ref="D13"/>
+    <hyperlink r:id="rId11" location="hasSubjectPseudoIdentifier" ref="D14"/>
+  </hyperlinks>
+  <drawing r:id="rId12"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.71"/>
+    <col customWidth="1" min="2" max="2" width="47.29"/>
+    <col customWidth="1" min="3" max="3" width="56.71"/>
+    <col customWidth="1" min="4" max="4" width="62.71"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="29"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="31"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E12:H12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink r:id="rId1" location="hasSubjectPseudoIdentifier" ref="D4"/>
+    <hyperlink r:id="rId2" location="hasAdministrativeCase" ref="D5"/>
+    <hyperlink r:id="rId3" location="hasCareHandling" ref="D6"/>
+    <hyperlink r:id="rId4" location="hasSubjectPseudoIdentifier" ref="D7"/>
+    <hyperlink r:id="rId5" location="hasAdministrativeCase" ref="D8"/>
+    <hyperlink r:id="rId6" location="hasTypeCode" ref="D9"/>
+    <hyperlink r:id="rId7" location="hasDescription" ref="D10"/>
+    <hyperlink r:id="rId8" location="hasDescription" ref="D11"/>
+    <hyperlink r:id="rId9" location="DataFile" ref="C12"/>
+    <hyperlink r:id="rId10" location="hasDataFile" ref="D12"/>
+    <hyperlink r:id="rId11" location="DataFile" ref="B13"/>
+    <hyperlink r:id="rId12" location="hasEncoding" ref="D13"/>
+    <hyperlink r:id="rId13" location="Result" ref="C14"/>
+    <hyperlink r:id="rId14" location="hasResult" ref="D14"/>
+    <hyperlink r:id="rId15" location="Result" ref="B15"/>
+    <hyperlink r:id="rId16" location="Quantity" ref="C15"/>
+    <hyperlink r:id="rId17" location="hasQuantity" ref="D15"/>
+    <hyperlink r:id="rId18" location="Quantity" ref="B16"/>
+    <hyperlink r:id="rId19" location="hasUnit" ref="D16"/>
+    <hyperlink r:id="rId20" location="hasSubjectPseudoIdentifier" ref="D17"/>
+  </hyperlinks>
+  <drawing r:id="rId21"/>
 </worksheet>
 </file>